--- a/jauswertung-meldeunterlagen/src/main/resources/Meldeunterlagen/Meldeunterlagen Mannschaftsmeisterschaften.xlsx
+++ b/jauswertung-meldeunterlagen/src/main/resources/Meldeunterlagen/Meldeunterlagen Mannschaftsmeisterschaften.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\source\eclipse-workspace\JAuswertung-Project\jauswertung-meldeunterlagen\src\main\resources\Meldeunterlagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\source\eclipse-workspace\JAuswertung-Project\jauswertung-meldeunterlagen\src\main\resources\Meldeunterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C0E0B-8FCA-4A37-96E3-602C4FFB42AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA4E67-D408-4D49-999E-6DA78BD5D0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-100" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AK 12" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,6 +44,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -52,13 +53,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,6 +68,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -74,13 +77,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -88,6 +92,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -96,13 +101,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -110,6 +116,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -118,6 +125,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -134,7 +142,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -142,6 +150,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -150,13 +159,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -164,6 +174,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -172,13 +183,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -186,6 +198,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -194,13 +207,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
@@ -208,6 +222,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -216,6 +231,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -232,7 +248,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -240,6 +256,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -248,13 +265,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -262,6 +280,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -270,13 +289,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -284,6 +304,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -292,6 +313,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -308,7 +330,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -316,6 +338,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -324,13 +347,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -338,6 +362,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -346,13 +371,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -360,6 +386,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -368,6 +395,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -384,7 +412,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -392,6 +420,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -400,13 +429,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -414,6 +444,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -422,13 +453,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -436,6 +468,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -444,13 +477,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -458,6 +492,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -466,6 +501,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -482,7 +518,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -490,6 +526,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -498,13 +535,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -512,6 +550,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -520,13 +559,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -534,6 +574,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -542,13 +583,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -556,6 +598,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -564,6 +607,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -580,7 +624,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -588,6 +632,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -596,13 +641,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -610,6 +656,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -618,13 +665,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -632,6 +680,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -640,13 +689,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -654,6 +704,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -662,6 +713,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -678,7 +730,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -686,6 +738,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -694,13 +747,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -708,6 +762,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -716,13 +771,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -730,6 +786,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -738,13 +795,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -752,6 +810,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -760,6 +819,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -776,7 +836,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -784,6 +844,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -792,13 +853,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -806,6 +868,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -814,13 +877,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -828,6 +892,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -836,13 +901,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -850,6 +916,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -858,6 +925,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -874,7 +942,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -882,6 +950,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -890,13 +959,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -904,6 +974,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -912,13 +983,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -926,6 +998,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -934,13 +1007,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -948,6 +1022,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -956,6 +1031,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -972,7 +1048,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -980,6 +1056,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -988,13 +1065,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1002,6 +1080,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1010,13 +1089,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1024,6 +1104,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1032,13 +1113,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1046,6 +1128,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1054,6 +1137,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -1070,7 +1154,7 @@
     <author>Dennis Müller</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1078,6 +1162,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1086,13 +1171,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1100,6 +1186,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1108,13 +1195,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1122,6 +1210,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1130,13 +1219,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1144,6 +1234,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dennis Müller:</t>
         </r>
@@ -1152,6 +1243,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Hier kann eine Meldezeit angeben werden. Ein + meldet die Mannschaft ohne Zeit.</t>
@@ -1163,7 +1255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="14">
   <si>
     <t>Gliederung</t>
   </si>
@@ -1201,13 +1293,10 @@
     <t>4*50m Freistil</t>
   </si>
   <si>
-    <t>Meldepunkte A</t>
+    <t>4*25m RoA</t>
   </si>
   <si>
-    <t>Meldepunkte B</t>
-  </si>
-  <si>
-    <t>4*25m RoA</t>
+    <t>Meldepunkte</t>
   </si>
 </sst>
 </file>
@@ -1231,12 +1320,14 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1322,9 +1413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1362,9 +1453,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1397,26 +1488,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1449,26 +1523,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1658,16 +1715,17 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1678,353 +1736,320 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2056,16 +2081,17 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2076,353 +2102,320 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2453,15 +2446,16 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.1796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="0" style="3" hidden="1"/>
     <col min="10" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2472,320 +2466,287 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2817,15 +2778,16 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.1796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="0" style="3" hidden="1"/>
     <col min="10" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2836,320 +2798,287 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3181,16 +3110,17 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3201,353 +3131,320 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3579,16 +3476,17 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3599,353 +3497,320 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3977,16 +3842,17 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3997,353 +3863,320 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4375,16 +4208,17 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4395,353 +4229,320 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4765,7 +4566,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4773,16 +4574,17 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4793,353 +4595,320 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5171,16 +4940,17 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5191,353 +4961,320 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5561,7 +5298,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5569,16 +5306,17 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5589,353 +5327,320 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5967,16 +5672,17 @@
     <col min="1" max="1" width="26.7265625" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5987,353 +5693,320 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/jauswertung-meldeunterlagen/src/main/resources/Meldeunterlagen/Meldeunterlagen Mannschaftsmeisterschaften.xlsx
+++ b/jauswertung-meldeunterlagen/src/main/resources/Meldeunterlagen/Meldeunterlagen Mannschaftsmeisterschaften.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\source\eclipse-workspace\JAuswertung-Project\jauswertung-meldeunterlagen\src\main\resources\Meldeunterlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA4E67-D408-4D49-999E-6DA78BD5D0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD144C-BF59-4476-8000-BB946D5495C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-100" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AK 12" sheetId="4" r:id="rId1"/>
@@ -1255,7 +1255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="13">
   <si>
     <t>Gliederung</t>
   </si>
@@ -1264,9 +1264,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>4*25m Hindernis</t>
   </si>
   <si>
     <t>4*25m Rettungsstaffel</t>
@@ -1721,7 +1718,7 @@
     <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0" style="3" hidden="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -1736,19 +1733,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -2087,7 +2084,7 @@
     <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0" style="3" hidden="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -2102,19 +2099,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -2451,7 +2448,7 @@
     <col min="6" max="6" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.26953125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="0.1796875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="0" style="3" hidden="1"/>
+    <col min="9" max="9" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -2466,16 +2463,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2783,7 +2780,7 @@
     <col min="6" max="6" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.26953125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="0.1796875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="0" style="3" hidden="1"/>
+    <col min="9" max="9" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -2798,16 +2795,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3116,7 +3113,7 @@
     <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0" style="3" hidden="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -3131,19 +3128,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -3482,7 +3479,7 @@
     <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0" style="3" hidden="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -3497,19 +3494,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -3848,7 +3845,7 @@
     <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0" style="3" hidden="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -3863,19 +3860,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -4214,7 +4211,7 @@
     <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0" style="3" hidden="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -4229,19 +4226,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -4580,7 +4577,7 @@
     <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0" style="3" hidden="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -4595,19 +4592,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -4946,7 +4943,7 @@
     <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0" style="3" hidden="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -4961,19 +4958,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -5312,7 +5309,7 @@
     <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0" style="3" hidden="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -5327,19 +5324,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -5678,7 +5675,7 @@
     <col min="7" max="7" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.1796875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="0" style="3" hidden="1"/>
+    <col min="10" max="10" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="20.1796875" style="3" hidden="1"/>
   </cols>
   <sheetData>
@@ -5693,19 +5690,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
